--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Documents/stock/gitgit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986347E8-2BF8-1C43-AC48-09338447B465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6860F-D600-354E-AA33-0FAC87E09C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="540" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
+    <workbookView xWindow="40" yWindow="620" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>revcl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>revcloud구름형 리비젼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +589,342 @@
   </si>
   <si>
     <t>그 외는 알아서 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥글다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체선택 + enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r직사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행열 갯수, 거리 등 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as연관을 설정해놓아야 같이 배열편집 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행열 갯수, 거리 등 지정 / rot항목회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset간격띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체+위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리화 된 도형을 띄울 때 유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mirror대칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대칭축(첫/두번째 점) 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띄우서 대칭할 경우에는 선을 미리 그려 놓아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성-도면층을 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린트 출력되지 않도록 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선을 그리고 레이어 선택하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금 : 편집불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시성 : 실제 존재하지만 보이지만 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결 : 보이지도 않고 안그린 것으로 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선가중치 : 굵게 적용한 것 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022에서는 lwdisplay : on으로 하면 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block : 여러 객체 묶어서 하나로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert : 저장한 블록 불러올 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축척/단일축척(xy동일)/회전/분해(분해된 객체로 삽입됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wblock : dwg로 저장가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 dwg 파일도 불러올 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group : 객체들을 그룹으로 묶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룸을 편집하여 추가/제거 등 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세그먼트 숫자 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide : 등분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measure : 길이분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osnap에서 노드를 체크해야 분할된 점 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐져나온 부분 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend연장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연장할 선 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift키 : trim &lt;-&gt; extend 바꿔 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break : 선의 중간 끊기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join : 결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatch : 해치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무늬, 축척, 각도, 배경색 등 변경 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 속 클릭(객체 선택으로도 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 해치로 하면 각각 따로 해치무늬 선택 가능, 무늬의 기준점 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라디에이션을 선택할 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,11 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1291,6 +1623,9 @@
       <c r="D32" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="1" t="s">
@@ -1299,6 +1634,9 @@
       <c r="D33" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -1450,104 +1788,445 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>205</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="C53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>139</v>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="D60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="F64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="F65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="G66" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="G67" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="G68" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="C80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6860F-D600-354E-AA33-0FAC87E09C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC59446A-A60E-6E4A-9497-83ABE0758759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="620" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
+    <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="251">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +925,117 @@
   </si>
   <si>
     <t>그라디에이션을 선택할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체(비어있는)선택 + enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary : 경계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 점 선택 + enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m이동을 통해 옆으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 평면도에서 면적 등을 계산하기 위해 사용</t>
+  </si>
+  <si>
+    <t>'경계'라는 폴리선을 새로 만드는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explode : 분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리화 된 선을 분해 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해치도 각각을 분해 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w폭, 곡선화 등 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 선을 폴리선으로 변환 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모깍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 선 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 선 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chamfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모따기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫,두번째 선 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p폴리선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번에 모든 선 적용 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1108,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1806,7 +1920,7 @@
         <v>207</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>208</v>
@@ -2224,9 +2338,114 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:7">
       <c r="C81" s="1" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="G83" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="G85" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="C87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="C89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC59446A-A60E-6E4A-9497-83ABE0758759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CDB55-E436-3A46-9DB0-9E44CA92DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="276">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1036,106 @@
   </si>
   <si>
     <t>한 번에 모든 선 적용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어 창 on/off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전각도 or c복사+회전각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r참조각도 + 시작/끝 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 선에 맞추어 회전 가능(중요! 많이 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale : rotate와 똑같은 명령방식 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align : rotate + scale 기능임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원점들 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch : 특정 변만 늘리거나 줄임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@100&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체선택(완전포함 : 이동, 걸침 : 신축)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lengthen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de증분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이 숫자(+- 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각 다른 길이를 해당 길이로 변경됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy동적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 길이 조정 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1427,11 +1527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1546,315 +1646,306 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>251</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="D20" s="1" t="s">
+    <row r="21" spans="1:7">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:7">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="1:7">
+      <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="C35" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1865,188 +1956,191 @@
         <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="1:7">
+      <c r="C48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
       <c r="C50" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="C55" s="1" t="s">
+    <row r="56" spans="1:7">
+      <c r="C56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>143</v>
@@ -2057,30 +2151,33 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="D59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>152</v>
@@ -2088,226 +2185,223 @@
     </row>
     <row r="60" spans="1:7">
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="F64" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="F65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="F66" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="G66" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="G67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="G68" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="G69" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>212</v>
@@ -2318,134 +2412,254 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="C80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="C81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="C82" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="G83" s="1" t="s">
+    <row r="84" spans="1:7">
+      <c r="G84" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="G85" s="1" t="s">
+    <row r="86" spans="1:7">
+      <c r="G86" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="1:7">
+      <c r="C88" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="1:7">
+      <c r="C90" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="E93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="C98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="C99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CDB55-E436-3A46-9DB0-9E44CA92DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0FEB2-5731-164B-B1E4-7BEEA0BC742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="369">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,22 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dimlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선형치수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력위치 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작,끝 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2p두점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,6 +1120,394 @@
   </si>
   <si>
     <t>직접 길이 조정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id : 해당 객체의 좌표점 등 정보 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measuregeom : 거리, 반지름, 면적 체적 등 구할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 추가로 여러 개체의 면적도 함께 구함 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식으로 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 계산기(mac에서는 사용 불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이 등을 찍어서 계산 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이, 면적 값 등도 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchproperty : 특성일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작위치, 높이 등 지정하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%c : 지름 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%d : 각도 도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%p : +-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f맞춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 + 세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이는 안찌그러지게 자동조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 길이 안에 맞게 입력됨(찌그러짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc중간중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간에서 퍼져나감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtext : 여러줄입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style : 문자 스타일 생성 및 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch(특성창)에서 바꿀 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자@가 붙은건 선택하지 말 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleader : 지시선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 + 끝 + 글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleaderstyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 만들어서 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleaderedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지시선 추가/r제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 지시선 + 추가/r제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleaderalign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 지시선의 높이를 맞춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮길 지시선 선택 + enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 지시선 + 위치지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader로도 작성 가능(선과 글자 특성이 따로 작성됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimstyle : 치수 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선 : 색상, 원점에서 간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 : 글꼴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 : 전체축척 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 단위 : 소수점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c계속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번에 여러 치수선 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimlinear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o세로좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대 세로좌표 삽입(주로 토목 측량 등 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b기준선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나씩 덮여가는 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나 넣고 추가로 넣을 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j꺽기치수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치수보조선 1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹칠 경우, 보조선을 끌 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린터(Autocad PDF - high quality print)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플롯스타일(monochrome)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용지(ISO full bleed A3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec(420,297)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바깥 사각형 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVIEW : 뷰포트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 + 꼭지점 클릭 : 4개의 뷰포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 뷰포트 찍고 작업하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/10xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvsetup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift + 오른쪽 (수동스냅) : 중간점/끝점 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬할 뷰포트에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬당할 뷰포트에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같이 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v수직정렬(h수평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄할내용(윈도우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플롯간격(플롯의중심)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰포트들(편리함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰포트 전체선택 후 layer-동결하면 뷰포트간의 선 없이 출력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf를 도면화하여 가져올 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,11 +1899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1539,7 +1911,7 @@
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
     <col min="3" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1646,10 +2018,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1667,10 +2039,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1683,15 +2055,15 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1846,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1857,7 +2229,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1868,34 +2240,34 @@
         <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1906,24 +2278,24 @@
         <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1931,10 +2303,10 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1942,10 +2314,10 @@
         <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1953,16 +2325,16 @@
         <v>74</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1970,507 +2342,507 @@
         <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>201</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>209</v>
+        <v>109</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>208</v>
+        <v>111</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="C51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>118</v>
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>126</v>
+      <c r="C54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>144</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="D59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
       <c r="D60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>161</v>
+      <c r="F63" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G64" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="G65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="G66" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="F65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="F66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="G67" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
       <c r="G68" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="G69" s="1" t="s">
+      <c r="A69" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>192</v>
+      <c r="D72" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>182</v>
+      <c r="G74" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G80" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C81" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="C82" s="1" t="s">
-        <v>222</v>
+      <c r="G82" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>229</v>
+        <v>139</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="G84" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2481,34 +2853,40 @@
         <v>231</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G85" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:7">
+      <c r="C86" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>236</v>
+        <v>102</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="C88" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2519,147 +2897,518 @@
         <v>240</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C90" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>250</v>
+        <v>139</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>248</v>
+        <v>138</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="E93" s="1" t="s">
+      <c r="A93" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>257</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="C96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>265</v>
+      <c r="G96" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="C98" s="1" t="s">
+      <c r="A98" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>270</v>
+      <c r="B98" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="C105" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="C106" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="C107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="C108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="C109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" t="s">
+        <v>305</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="C117" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="C118" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="C119" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="C122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="C125" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="C128" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="C129" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="C130" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="C131" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="C132" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="E137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0FEB2-5731-164B-B1E4-7BEEA0BC742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6836C289-AE05-CE40-A014-5F74FC4EE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="391">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,6 +1508,94 @@
   </si>
   <si>
     <t>pdf를 도면화하여 가져올 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별칭편집(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단축키 설정/변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wipeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임도 안보이게 끌 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region : 영역화, 차집합 교집합 가능하게 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 객체들 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>union : 합집합. 해당 객체들이 합쳐짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 번째 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtract : 차집합. 첫 번째 기준으로 두 번째를 뺌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersect : 교집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qselect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 특성 애들을 단체로 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 파일 삽입하기. 선택하여 자르기 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,11 +1987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3411,6 +3499,94 @@
         <v>368</v>
       </c>
     </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6836C289-AE05-CE40-A014-5F74FC4EE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793971E1-3D1A-3043-A694-A0D23C46BAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="420">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1596,6 +1596,122 @@
   </si>
   <si>
     <t>이미지 파일 삽입하기. 선택하여 자르기 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글꼴 : 명령입력창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 : 2010버전으로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동저장 위치/간격/확장자=&gt;dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토스냅 표식 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰큐브/UCS(xy축) 끌 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인란(마우스의 선택하는 부분) 크기 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사/동사 선택 - 레이어 변경시 적용 되나 안되나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 항목 선택시 시프트키 누르나 안누르나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복선 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끊어진 두 곡선을 자연스럽게 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 곡선 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control + k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객에게 도면 설명 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끌어당기기, 수식, 셀색 등 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입-OLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리기 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 선택 후 오른쪽 + 그리기 순서로 앞/뒤 변경 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안쓰는 도면층 등을 소거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에 저장하는 기능도 있음. 폰에서도 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 및 모바일에 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1987,11 +2103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3560,7 +3676,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>386</v>
       </c>
@@ -3571,7 +3687,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>387</v>
       </c>
@@ -3579,12 +3695,131 @@
         <v>388</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="B149" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="B150" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="B151" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="B152" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="B154" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="B155" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/CAD.xlsx
+++ b/CAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793971E1-3D1A-3043-A694-A0D23C46BAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C089337-3CA8-1644-80D6-56F6AF894D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="800" windowWidth="27900" windowHeight="15320" xr2:uid="{20DFD294-9C6B-2E4A-A050-DB68EE9B6E6A}"/>
   </bookViews>
@@ -1759,12 +1759,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1773,7 +1810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,10 +1820,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2105,17 +2151,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BBAC9A-BDB1-E846-9B55-A1D7FFA7AAA5}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -2148,1682 +2197,2359 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="C54" s="1" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="D58" s="1" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="D59" s="1" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="F63" s="1" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="F64" s="1" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="G65" s="1" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="G66" s="1" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="G67" s="1" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="G82" s="1" t="s">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="G84" s="1" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="C86" s="1" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="E91" s="1" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="C96" s="1" t="s">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>278</v>
       </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="C106" s="1" t="s">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
         <v>322</v>
       </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="C119" s="1" t="s">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4" t="s">
         <v>324</v>
       </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>329</v>
       </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>328</v>
       </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="C130" s="1" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="C131" s="1" t="s">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="C132" s="1" t="s">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="4" t="s">
         <v>355</v>
       </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="E137" s="1" t="s">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="B149" s="1" t="s">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4" t="s">
         <v>393</v>
       </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="B151" s="1" t="s">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="B152" s="1" t="s">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
         <v>396</v>
       </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="B153" s="1" t="s">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="B154" s="1" t="s">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="B155" s="1" t="s">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="7" t="s">
         <v>418</v>
       </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>